--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1876.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1876.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.619673670236571</v>
+        <v>1.955131053924561</v>
       </c>
       <c r="B1">
-        <v>4.265324991678736</v>
+        <v>1.963433980941772</v>
       </c>
       <c r="C1">
-        <v>4.386868317095144</v>
+        <v>1.867145299911499</v>
       </c>
       <c r="D1">
-        <v>1.193495292819911</v>
+        <v>2.554807186126709</v>
       </c>
       <c r="E1">
-        <v>0.7025756092746976</v>
+        <v>5.070760726928711</v>
       </c>
     </row>
   </sheetData>
